--- a/安全建设顺序-通用内容细节.xlsx
+++ b/安全建设顺序-通用内容细节.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7130" tabRatio="930"/>
+    <workbookView windowWidth="23040" windowHeight="9300" tabRatio="930" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="总览" sheetId="16" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="240">
   <si>
     <t>项目</t>
   </si>
@@ -1757,15 +1757,15 @@
   <sheetPr/>
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="17.3636363636364" customWidth="1"/>
-    <col min="2" max="2" width="22.4545454545455" customWidth="1"/>
-    <col min="3" max="3" width="19.2727272727273" customWidth="1"/>
+    <col min="1" max="1" width="17.3611111111111" customWidth="1"/>
+    <col min="2" max="2" width="22.4537037037037" customWidth="1"/>
+    <col min="3" max="3" width="19.2685185185185" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1808,15 +1808,15 @@
   <dimension ref="A1:I57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B13" sqref="B13:B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="2" width="22.1818181818182" style="3" customWidth="1"/>
-    <col min="3" max="3" width="25.3636363636364" style="3" customWidth="1"/>
-    <col min="4" max="4" width="24.2181818181818" style="3" customWidth="1"/>
+    <col min="2" max="2" width="22.1851851851852" style="3" customWidth="1"/>
+    <col min="3" max="3" width="25.3611111111111" style="3" customWidth="1"/>
+    <col min="4" max="4" width="24.2222222222222" style="3" customWidth="1"/>
     <col min="5" max="6" width="9" style="4"/>
     <col min="7" max="16384" width="9" style="3"/>
   </cols>
@@ -1878,10 +1878,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" ht="28" spans="1:5">
-      <c r="A13" s="3" t="s">
-        <v>10</v>
-      </c>
+    <row r="13" ht="28.8" spans="2:5">
       <c r="B13" s="5" t="s">
         <v>21</v>
       </c>
@@ -1916,7 +1913,7 @@
     <row r="16" spans="3:3">
       <c r="C16" s="5"/>
     </row>
-    <row r="17" ht="28" spans="2:5">
+    <row r="17" ht="28.8" spans="2:5">
       <c r="B17" s="5" t="s">
         <v>29</v>
       </c>
@@ -2004,7 +2001,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" ht="126" spans="2:6">
+    <row r="26" ht="129.6" spans="2:6">
       <c r="B26" s="5"/>
       <c r="C26" s="5" t="s">
         <v>45</v>
@@ -2056,7 +2053,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" ht="28" spans="2:4">
+    <row r="33" ht="28.8" spans="2:4">
       <c r="B33" s="5"/>
       <c r="C33" s="6" t="s">
         <v>55</v>
@@ -2120,7 +2117,7 @@
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
     </row>
-    <row r="41" ht="28" spans="2:5">
+    <row r="41" ht="28.8" spans="2:5">
       <c r="B41" s="5" t="s">
         <v>66</v>
       </c>
@@ -2254,10 +2251,10 @@
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="18.5545454545455" customWidth="1"/>
-    <col min="2" max="2" width="17.1090909090909" customWidth="1"/>
+    <col min="1" max="1" width="18.5555555555556" customWidth="1"/>
+    <col min="2" max="2" width="17.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -2377,25 +2374,25 @@
   <sheetPr/>
   <dimension ref="B1:J40"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="8.72727272727273" style="3"/>
-    <col min="2" max="2" width="22.1818181818182" style="4" customWidth="1"/>
+    <col min="1" max="1" width="8.73148148148148" style="3"/>
+    <col min="2" max="2" width="22.1851851851852" style="4" customWidth="1"/>
     <col min="3" max="4" width="19" style="4" customWidth="1"/>
-    <col min="5" max="5" width="21.5454545454545" style="4" customWidth="1"/>
-    <col min="6" max="6" width="20.5545454545455" style="4" customWidth="1"/>
-    <col min="7" max="7" width="24.2181818181818" style="4" customWidth="1"/>
-    <col min="8" max="8" width="14.8909090909091" style="3" customWidth="1"/>
-    <col min="9" max="9" width="8.72727272727273" style="3"/>
-    <col min="10" max="10" width="18.2181818181818" style="4" customWidth="1"/>
-    <col min="11" max="16384" width="8.72727272727273" style="3"/>
+    <col min="5" max="5" width="21.5462962962963" style="4" customWidth="1"/>
+    <col min="6" max="6" width="20.5555555555556" style="4" customWidth="1"/>
+    <col min="7" max="7" width="24.2222222222222" style="4" customWidth="1"/>
+    <col min="8" max="8" width="14.8888888888889" style="3" customWidth="1"/>
+    <col min="9" max="9" width="8.73148148148148" style="3"/>
+    <col min="10" max="10" width="18.2222222222222" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="8.73148148148148" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28" spans="2:10">
+    <row r="1" ht="28.8" spans="2:10">
       <c r="B1" s="4" t="s">
         <v>99</v>
       </c>
@@ -2459,7 +2456,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="4" ht="42" spans="2:7">
+    <row r="4" ht="43.2" spans="2:7">
       <c r="B4" s="6"/>
       <c r="C4" s="4" t="s">
         <v>117</v>
@@ -2474,7 +2471,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="6" ht="28" spans="2:7">
+    <row r="6" ht="28.8" spans="2:7">
       <c r="B6" s="6" t="s">
         <v>29</v>
       </c>
@@ -2491,7 +2488,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="7" ht="28" spans="2:7">
+    <row r="7" ht="28.8" spans="2:7">
       <c r="B7" s="6"/>
       <c r="C7" s="4" t="s">
         <v>125</v>
@@ -2506,7 +2503,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="9" ht="42" spans="2:7">
+    <row r="9" ht="43.2" spans="2:7">
       <c r="B9" s="6" t="s">
         <v>38</v>
       </c>
@@ -2523,7 +2520,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="10" ht="28" spans="2:7">
+    <row r="10" ht="28.8" spans="2:7">
       <c r="B10" s="6"/>
       <c r="C10" s="4" t="s">
         <v>132</v>
@@ -2572,7 +2569,7 @@
       </c>
       <c r="J13" s="4"/>
     </row>
-    <row r="14" s="3" customFormat="1" ht="42" spans="2:10">
+    <row r="14" s="3" customFormat="1" ht="43.2" spans="2:10">
       <c r="B14" s="6"/>
       <c r="C14" s="4" t="s">
         <v>143</v>
@@ -2589,7 +2586,7 @@
       </c>
       <c r="J14" s="4"/>
     </row>
-    <row r="15" s="3" customFormat="1" ht="42" spans="2:10">
+    <row r="15" s="3" customFormat="1" ht="43.2" spans="2:10">
       <c r="B15" s="6"/>
       <c r="C15" s="4" t="s">
         <v>147</v>
@@ -2606,7 +2603,7 @@
       </c>
       <c r="J15" s="4"/>
     </row>
-    <row r="16" ht="42" spans="2:7">
+    <row r="16" ht="43.2" spans="2:7">
       <c r="B16" s="6"/>
       <c r="C16" s="4" t="s">
         <v>148</v>
@@ -2621,7 +2618,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="18" s="3" customFormat="1" ht="42" spans="2:10">
+    <row r="18" s="3" customFormat="1" ht="43.2" spans="2:10">
       <c r="B18" s="6" t="s">
         <v>53</v>
       </c>
@@ -2666,7 +2663,7 @@
       <c r="G20" s="4"/>
       <c r="J20" s="4"/>
     </row>
-    <row r="21" ht="28" spans="2:7">
+    <row r="21" ht="28.8" spans="2:7">
       <c r="B21" s="4" t="s">
         <v>66</v>
       </c>
@@ -2683,7 +2680,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="23" ht="28" spans="2:6">
+    <row r="23" ht="28.8" spans="2:6">
       <c r="B23" s="4" t="s">
         <v>159</v>
       </c>
@@ -2715,7 +2712,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="27" ht="28" spans="2:7">
+    <row r="27" ht="28.8" spans="2:7">
       <c r="B27" s="4" t="s">
         <v>74</v>
       </c>
@@ -2769,7 +2766,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="35" ht="28" spans="2:6">
+    <row r="35" ht="28.8" spans="2:6">
       <c r="B35" s="4" t="s">
         <v>76</v>
       </c>
@@ -2783,7 +2780,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="37" ht="28" spans="2:5">
+    <row r="37" ht="28.8" spans="2:5">
       <c r="B37" s="4" t="s">
         <v>172</v>
       </c>
@@ -2794,7 +2791,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="40" ht="28" spans="2:2">
+    <row r="40" ht="28.8" spans="2:2">
       <c r="B40" s="4" t="s">
         <v>175</v>
       </c>
@@ -2821,11 +2818,11 @@
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="22.1818181818182" style="3" customWidth="1"/>
+    <col min="1" max="1" width="22.1851851851852" style="3" customWidth="1"/>
     <col min="2" max="2" width="19" style="4" customWidth="1"/>
-    <col min="3" max="3" width="18.5545454545455" customWidth="1"/>
+    <col min="3" max="3" width="18.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -2862,7 +2859,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="4" ht="42" spans="1:3">
+    <row r="4" ht="43.2" spans="1:3">
       <c r="A4" s="5"/>
       <c r="B4" s="4" t="s">
         <v>117</v>
@@ -2882,7 +2879,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="7" ht="28" spans="1:3">
+    <row r="7" ht="28.8" spans="1:3">
       <c r="A7" s="5"/>
       <c r="B7" s="4" t="s">
         <v>125</v>
@@ -2940,7 +2937,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="15" ht="28" spans="1:3">
+    <row r="15" ht="28.8" spans="1:3">
       <c r="A15" s="5"/>
       <c r="B15" s="4" t="s">
         <v>187</v>
@@ -2958,7 +2955,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="18" ht="28" spans="1:3">
+    <row r="18" ht="28.8" spans="1:3">
       <c r="A18" s="5" t="s">
         <v>53</v>
       </c>
@@ -3022,7 +3019,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="29" ht="28" spans="1:3">
+    <row r="29" ht="28.8" spans="1:3">
       <c r="A29" s="3" t="s">
         <v>76</v>
       </c>
@@ -3066,12 +3063,12 @@
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="22.1818181818182" style="3" customWidth="1"/>
-    <col min="2" max="2" width="22.4454545454545" style="4" customWidth="1"/>
-    <col min="3" max="3" width="21.2181818181818" customWidth="1"/>
-    <col min="4" max="4" width="17.5545454545455" customWidth="1"/>
+    <col min="1" max="1" width="22.1851851851852" style="3" customWidth="1"/>
+    <col min="2" max="2" width="22.4444444444444" style="4" customWidth="1"/>
+    <col min="3" max="3" width="21.2222222222222" customWidth="1"/>
+    <col min="4" max="4" width="17.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -3301,7 +3298,7 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
@@ -3333,42 +3330,42 @@
         <v>221</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="15" spans="2:2">
+    <row r="7" s="1" customFormat="1" ht="15.6" spans="2:2">
       <c r="B7" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="15" spans="2:2">
+    <row r="8" s="1" customFormat="1" ht="15.6" spans="2:2">
       <c r="B8" s="1" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" ht="15" spans="2:2">
+    <row r="9" s="1" customFormat="1" ht="15.6" spans="2:2">
       <c r="B9" s="1" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" ht="15" spans="2:2">
+    <row r="10" s="1" customFormat="1" ht="15.6" spans="2:2">
       <c r="B10" s="1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" ht="15" spans="2:2">
+    <row r="11" s="1" customFormat="1" ht="15.6" spans="2:2">
       <c r="B11" s="1" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" ht="15" spans="2:2">
+    <row r="12" s="1" customFormat="1" ht="15.6" spans="2:2">
       <c r="B12" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" ht="15" spans="2:2">
+    <row r="13" s="1" customFormat="1" ht="15.6" spans="2:2">
       <c r="B13" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" ht="15" spans="2:2">
+    <row r="14" s="1" customFormat="1" ht="15.6" spans="2:2">
       <c r="B14" s="1" t="s">
         <v>229</v>
       </c>
@@ -3417,7 +3414,7 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="2"/>
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
@@ -3468,7 +3465,7 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="1"/>
   <sheetData>
     <row r="5" spans="2:2">
       <c r="B5" t="s">

--- a/安全建设顺序-通用内容细节.xlsx
+++ b/安全建设顺序-通用内容细节.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9300" tabRatio="930" activeTab="3"/>
+    <workbookView windowWidth="19200" windowHeight="7130" tabRatio="930"/>
   </bookViews>
   <sheets>
     <sheet name="总览" sheetId="16" r:id="rId1"/>
-    <sheet name="安全评估及检查" sheetId="1" r:id="rId2"/>
-    <sheet name="安全培训" sheetId="13" r:id="rId3"/>
-    <sheet name="资产梳理及安全管理" sheetId="11" r:id="rId4"/>
+    <sheet name="资产梳理及安全管理" sheetId="11" r:id="rId2"/>
+    <sheet name="安全评估及检查" sheetId="1" r:id="rId3"/>
+    <sheet name="安全培训" sheetId="13" r:id="rId4"/>
     <sheet name="安全加固与保护" sheetId="4" r:id="rId5"/>
     <sheet name="感知审计监控" sheetId="5" r:id="rId6"/>
     <sheet name="规章制度编写与发布" sheetId="2" r:id="rId7"/>
@@ -42,6 +42,288 @@
     <t>归类好的，随着文档写作慢慢挪出去</t>
   </si>
   <si>
+    <t>资产梳理</t>
+  </si>
+  <si>
+    <t>资产类型</t>
+  </si>
+  <si>
+    <t>是否存在</t>
+  </si>
+  <si>
+    <t>安全管理问题，权限管理要重点关注</t>
+  </si>
+  <si>
+    <t>管理方案</t>
+  </si>
+  <si>
+    <t>梳理方法</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>IP类</t>
+  </si>
+  <si>
+    <t>服务器</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>归属部门、归属项目、所在位置、登录权限、敏感服务、网段网络隔离、数据库与应用的用途隔离等</t>
+  </si>
+  <si>
+    <t>jumpserver，服务器备案，敏感服务划分及扫描，网络隔离</t>
+  </si>
+  <si>
+    <t>云服务器可使用官方接口获取入库，IDC服务器可使用网段扫描，办公室可手动统计</t>
+  </si>
+  <si>
+    <t>K8S自带隔离及管理</t>
+  </si>
+  <si>
+    <t>负载均衡/动态IP</t>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>归属部门、归属项目、所在位置、使用状态、绑定机器</t>
+  </si>
+  <si>
+    <t>备案</t>
+  </si>
+  <si>
+    <t>使用接口获取入库</t>
+  </si>
+  <si>
+    <t>办公网基础设备（交换机、路由器、打印机）</t>
+  </si>
+  <si>
+    <t>网络管理</t>
+  </si>
+  <si>
+    <t>AD域</t>
+  </si>
+  <si>
+    <t>手动统计</t>
+  </si>
+  <si>
+    <t>域名类</t>
+  </si>
+  <si>
+    <t>公司域名</t>
+  </si>
+  <si>
+    <t>域名续费及证书、所属项目</t>
+  </si>
+  <si>
+    <t>过期监控、域名备案</t>
+  </si>
+  <si>
+    <t>使用接口入库</t>
+  </si>
+  <si>
+    <t>CDN、waf、K8S等云服务</t>
+  </si>
+  <si>
+    <t>续费、归属、域名解析等</t>
+  </si>
+  <si>
+    <t>过期监控、服务备案</t>
+  </si>
+  <si>
+    <t>应用资产</t>
+  </si>
+  <si>
+    <t>web系统</t>
+  </si>
+  <si>
+    <t>归属部门、归属项目、。后台类系统的公共账号</t>
+  </si>
+  <si>
+    <t>域名备案、系统不允许存在公共账号</t>
+  </si>
+  <si>
+    <t>对应域名入库</t>
+  </si>
+  <si>
+    <t>app</t>
+  </si>
+  <si>
+    <t>渠道上架账号，用户协议合规等合规类规定</t>
+  </si>
+  <si>
+    <t>限制接触范围</t>
+  </si>
+  <si>
+    <t>对应域名入库、从各平台商店获取</t>
+  </si>
+  <si>
+    <t>小程序、公众号等</t>
+  </si>
+  <si>
+    <t>渠道上架账号</t>
+  </si>
+  <si>
+    <t>数据资产</t>
+  </si>
+  <si>
+    <t>数据库</t>
+  </si>
+  <si>
+    <t>归属及账号管理、外网、访问权限</t>
+  </si>
+  <si>
+    <t>备案、网络隔离、权限隔离</t>
+  </si>
+  <si>
+    <t>敏感服务扫描，云服务备案</t>
+  </si>
+  <si>
+    <t>日志中心</t>
+  </si>
+  <si>
+    <t>账号管理、外网、访问权限、敏感信息</t>
+  </si>
+  <si>
+    <t>备案、网络隔离、权限隔离、不收录敏感信息</t>
+  </si>
+  <si>
+    <t>手动统计、域名备案</t>
+  </si>
+  <si>
+    <t>数据平台/大数据</t>
+  </si>
+  <si>
+    <t>mq等队列</t>
+  </si>
+  <si>
+    <t>第三方系统或服务</t>
+  </si>
+  <si>
+    <t>oss</t>
+  </si>
+  <si>
+    <t>oss权限安全管理，梳理权限。ak，角色多对多</t>
+  </si>
+  <si>
+    <t>备案，隔离划分</t>
+  </si>
+  <si>
+    <t>邮箱</t>
+  </si>
+  <si>
+    <t>弱口令、公共账号</t>
+  </si>
+  <si>
+    <t>管理员设置密码规则</t>
+  </si>
+  <si>
+    <t>从oa获取</t>
+  </si>
+  <si>
+    <t>代码资产</t>
+  </si>
+  <si>
+    <t>权限过大，git管理混乱、无有效期设置</t>
+  </si>
+  <si>
+    <t>权限审计、设置申请流程</t>
+  </si>
+  <si>
+    <t>git仓库按产品梳理分组</t>
+  </si>
+  <si>
+    <t>容器资产</t>
+  </si>
+  <si>
+    <t>K8S</t>
+  </si>
+  <si>
+    <t>权限过大，权限信息缺失，公共账号</t>
+  </si>
+  <si>
+    <t>权限管理表格</t>
+  </si>
+  <si>
+    <t>漏洞</t>
+  </si>
+  <si>
+    <t>漏洞跟进复测</t>
+  </si>
+  <si>
+    <t>漏洞提醒</t>
+  </si>
+  <si>
+    <t>禅道、SRC等</t>
+  </si>
+  <si>
+    <t>公司员工</t>
+  </si>
+  <si>
+    <t>员工</t>
+  </si>
+  <si>
+    <t>内鬼，安全意识</t>
+  </si>
+  <si>
+    <t>安全意识培训，法律科普，DLP等监控设备安装</t>
+  </si>
+  <si>
+    <t>全员培训</t>
+  </si>
+  <si>
+    <t>网络资产</t>
+  </si>
+  <si>
+    <t>生产网络</t>
+  </si>
+  <si>
+    <t>网络职能混淆混乱</t>
+  </si>
+  <si>
+    <t>测试网络</t>
+  </si>
+  <si>
+    <t>弱口令等网络接入控制</t>
+  </si>
+  <si>
+    <t>开发网络</t>
+  </si>
+  <si>
+    <t>ad域</t>
+  </si>
+  <si>
+    <t>办公网络</t>
+  </si>
+  <si>
+    <t>网络隔离问题</t>
+  </si>
+  <si>
+    <t>平台账号资产</t>
+  </si>
+  <si>
+    <t>微博，B站，知乎，微信</t>
+  </si>
+  <si>
+    <t>安全管理</t>
+  </si>
+  <si>
+    <t>开发组件，服务组件等工具类</t>
+  </si>
+  <si>
+    <t>Xcode，phpstudy</t>
+  </si>
+  <si>
+    <t>供应链投毒攻击，零信任，办公安全</t>
+  </si>
+  <si>
+    <t>传统资产管理系统的升级或互相调用</t>
+  </si>
+  <si>
     <t>分类</t>
   </si>
   <si>
@@ -87,9 +369,6 @@
     <t>工作人员</t>
   </si>
   <si>
-    <t>IP类</t>
-  </si>
-  <si>
     <t>敏感服务</t>
   </si>
   <si>
@@ -111,9 +390,6 @@
     <t>渗透测试</t>
   </si>
   <si>
-    <t>域名类</t>
-  </si>
-  <si>
     <t>敏感路径敏感文件</t>
   </si>
   <si>
@@ -123,9 +399,6 @@
     <t>xray+crwler</t>
   </si>
   <si>
-    <t>漏洞</t>
-  </si>
-  <si>
     <t>渗透测试、自动化回归/渗透测试</t>
   </si>
   <si>
@@ -138,9 +411,6 @@
     <t>过期报警</t>
   </si>
   <si>
-    <t>应用资产</t>
-  </si>
-  <si>
     <t>合规检查</t>
   </si>
   <si>
@@ -183,9 +453,6 @@
     <t>薅羊毛、爬虫、作弊等</t>
   </si>
   <si>
-    <t>第三方系统或服务</t>
-  </si>
-  <si>
     <t>权限审计</t>
   </si>
   <si>
@@ -195,36 +462,6 @@
     <t>审计</t>
   </si>
   <si>
-    <t>网络资产</t>
-  </si>
-  <si>
-    <t>生产网络</t>
-  </si>
-  <si>
-    <t>网络职能混淆混乱</t>
-  </si>
-  <si>
-    <t>测试网络</t>
-  </si>
-  <si>
-    <t>弱口令等网络接入控制</t>
-  </si>
-  <si>
-    <t>开发网络</t>
-  </si>
-  <si>
-    <t>ad域</t>
-  </si>
-  <si>
-    <t>办公网络</t>
-  </si>
-  <si>
-    <t>网络隔离问题</t>
-  </si>
-  <si>
-    <t>代码资产</t>
-  </si>
-  <si>
     <t>安全审计</t>
   </si>
   <si>
@@ -246,15 +483,9 @@
     <t>管理端安全配置检查</t>
   </si>
   <si>
-    <t>公司员工</t>
-  </si>
-  <si>
     <t>安全意识考试、钓鱼测试、账号弱口令</t>
   </si>
   <si>
-    <t>平台账号资产</t>
-  </si>
-  <si>
     <t>流程卡点是SDL成功的关键，我们介入了所有可能的环节。比如采购、域名申请、cmdb 申请、研发部署的准入准出卡点，这个尤为重要，通过平台将Git url（代码仓库地址）和commit id（版本号）发给SDL平台，SDL平台根据Git url和commit id生成扫描任务，并将该扫描任务发送给白盒扫描器，白盒扫描器按照给定任务中的Git url和commit id拉取代码进行分析，并将扫描结果返回给SDL平台，SDL平台接收到扫描结果后，将结果中的漏洞推送到安全平台，由安全平台将漏洞发送给对应的安全工程师进行漏洞修复。</t>
   </si>
   <si>
@@ -319,237 +550,6 @@
   </si>
   <si>
     <t>见应用安全文件夹</t>
-  </si>
-  <si>
-    <t>资产梳理</t>
-  </si>
-  <si>
-    <t>资产类型</t>
-  </si>
-  <si>
-    <t>是否存在</t>
-  </si>
-  <si>
-    <t>安全管理问题，权限管理要重点关注</t>
-  </si>
-  <si>
-    <t>管理方案</t>
-  </si>
-  <si>
-    <t>梳理方法</t>
-  </si>
-  <si>
-    <t>备注</t>
-  </si>
-  <si>
-    <t>服务器</t>
-  </si>
-  <si>
-    <t>是</t>
-  </si>
-  <si>
-    <t>归属部门、归属项目、所在位置、登录权限、敏感服务、网段网络隔离、数据库与应用的用途隔离等</t>
-  </si>
-  <si>
-    <t>jumpserver，服务器备案，敏感服务划分及扫描，网络隔离</t>
-  </si>
-  <si>
-    <t>云服务器可使用官方接口获取入库，IDC服务器可使用网段扫描，办公室可手动统计</t>
-  </si>
-  <si>
-    <t>K8S自带隔离及管理</t>
-  </si>
-  <si>
-    <t>负载均衡/动态IP</t>
-  </si>
-  <si>
-    <t>否</t>
-  </si>
-  <si>
-    <t>归属部门、归属项目、所在位置、使用状态、绑定机器</t>
-  </si>
-  <si>
-    <t>备案</t>
-  </si>
-  <si>
-    <t>使用接口获取入库</t>
-  </si>
-  <si>
-    <t>办公网基础设备（交换机、路由器、打印机）</t>
-  </si>
-  <si>
-    <t>网络管理</t>
-  </si>
-  <si>
-    <t>AD域</t>
-  </si>
-  <si>
-    <t>手动统计</t>
-  </si>
-  <si>
-    <t>公司域名</t>
-  </si>
-  <si>
-    <t>域名续费及证书、所属项目</t>
-  </si>
-  <si>
-    <t>过期监控、域名备案</t>
-  </si>
-  <si>
-    <t>使用接口入库</t>
-  </si>
-  <si>
-    <t>CDN、waf、K8S等云服务</t>
-  </si>
-  <si>
-    <t>续费、归属、域名解析等</t>
-  </si>
-  <si>
-    <t>过期监控、服务备案</t>
-  </si>
-  <si>
-    <t>web系统</t>
-  </si>
-  <si>
-    <t>归属部门、归属项目、。后台类系统的公共账号</t>
-  </si>
-  <si>
-    <t>域名备案、系统不允许存在公共账号</t>
-  </si>
-  <si>
-    <t>对应域名入库</t>
-  </si>
-  <si>
-    <t>app</t>
-  </si>
-  <si>
-    <t>渠道上架账号，用户协议合规等合规类规定</t>
-  </si>
-  <si>
-    <t>限制接触范围</t>
-  </si>
-  <si>
-    <t>对应域名入库、从各平台商店获取</t>
-  </si>
-  <si>
-    <t>小程序、公众号等</t>
-  </si>
-  <si>
-    <t>渠道上架账号</t>
-  </si>
-  <si>
-    <t>数据资产</t>
-  </si>
-  <si>
-    <t>数据库</t>
-  </si>
-  <si>
-    <t>归属及账号管理、外网、访问权限</t>
-  </si>
-  <si>
-    <t>备案、网络隔离、权限隔离</t>
-  </si>
-  <si>
-    <t>敏感服务扫描，云服务备案</t>
-  </si>
-  <si>
-    <t>日志中心</t>
-  </si>
-  <si>
-    <t>账号管理、外网、访问权限、敏感信息</t>
-  </si>
-  <si>
-    <t>备案、网络隔离、权限隔离、不收录敏感信息</t>
-  </si>
-  <si>
-    <t>手动统计、域名备案</t>
-  </si>
-  <si>
-    <t>数据平台/大数据</t>
-  </si>
-  <si>
-    <t>mq等队列</t>
-  </si>
-  <si>
-    <t>oss</t>
-  </si>
-  <si>
-    <t>oss权限安全管理，梳理权限。ak，角色多对多</t>
-  </si>
-  <si>
-    <t>备案，隔离划分</t>
-  </si>
-  <si>
-    <t>邮箱</t>
-  </si>
-  <si>
-    <t>弱口令、公共账号</t>
-  </si>
-  <si>
-    <t>管理员设置密码规则</t>
-  </si>
-  <si>
-    <t>从oa获取</t>
-  </si>
-  <si>
-    <t>权限过大，git管理混乱、无有效期设置</t>
-  </si>
-  <si>
-    <t>权限审计、设置申请流程</t>
-  </si>
-  <si>
-    <t>git仓库按产品梳理分组</t>
-  </si>
-  <si>
-    <t>容器资产</t>
-  </si>
-  <si>
-    <t>K8S</t>
-  </si>
-  <si>
-    <t>权限过大，权限信息缺失，公共账号</t>
-  </si>
-  <si>
-    <t>权限管理表格</t>
-  </si>
-  <si>
-    <t>漏洞跟进复测</t>
-  </si>
-  <si>
-    <t>漏洞提醒</t>
-  </si>
-  <si>
-    <t>禅道、SRC等</t>
-  </si>
-  <si>
-    <t>员工</t>
-  </si>
-  <si>
-    <t>内鬼，安全意识</t>
-  </si>
-  <si>
-    <t>安全意识培训，法律科普，DLP等监控设备安装</t>
-  </si>
-  <si>
-    <t>全员培训</t>
-  </si>
-  <si>
-    <t>微博，B站，知乎，微信</t>
-  </si>
-  <si>
-    <t>安全管理</t>
-  </si>
-  <si>
-    <t>开发组件，服务组件等工具类</t>
-  </si>
-  <si>
-    <t>Xcode，phpstudy</t>
-  </si>
-  <si>
-    <t>供应链投毒攻击，零信任，办公安全</t>
-  </si>
-  <si>
-    <t>传统资产管理系统的升级或互相调用</t>
   </si>
   <si>
     <t>安全加固</t>
@@ -1401,11 +1401,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1757,15 +1757,15 @@
   <sheetPr/>
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="17.3611111111111" customWidth="1"/>
-    <col min="2" max="2" width="22.4537037037037" customWidth="1"/>
-    <col min="3" max="3" width="19.2685185185185" customWidth="1"/>
+    <col min="1" max="1" width="17.3636363636364" customWidth="1"/>
+    <col min="2" max="2" width="22.4545454545455" customWidth="1"/>
+    <col min="3" max="3" width="19.2727272727273" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1805,135 +1805,575 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="B1:J40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="8.72727272727273" style="3"/>
+    <col min="2" max="2" width="22.1818181818182" style="4" customWidth="1"/>
+    <col min="3" max="4" width="19" style="4" customWidth="1"/>
+    <col min="5" max="5" width="21.5454545454545" style="4" customWidth="1"/>
+    <col min="6" max="6" width="20.5545454545455" style="4" customWidth="1"/>
+    <col min="7" max="7" width="24.2181818181818" style="4" customWidth="1"/>
+    <col min="8" max="8" width="14.8909090909091" style="3" customWidth="1"/>
+    <col min="9" max="9" width="8.72727272727273" style="3"/>
+    <col min="10" max="10" width="18.2181818181818" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="8.72727272727273" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="28" spans="2:10">
+      <c r="B1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" ht="76" customHeight="1" spans="2:10">
+      <c r="B2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" ht="49" customHeight="1" spans="2:7">
+      <c r="B3" s="6"/>
+      <c r="C3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" ht="42" spans="2:7">
+      <c r="B4" s="6"/>
+      <c r="C4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" ht="28" spans="2:7">
+      <c r="B6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" ht="28" spans="2:7">
+      <c r="B7" s="6"/>
+      <c r="C7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" ht="42" spans="2:7">
+      <c r="B9" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" ht="28" spans="2:7">
+      <c r="B10" s="6"/>
+      <c r="C10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="6"/>
+      <c r="C11" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" s="3" customFormat="1" ht="36" customHeight="1" spans="2:10">
+      <c r="B13" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" s="3" customFormat="1" ht="42" spans="2:10">
+      <c r="B14" s="6"/>
+      <c r="C14" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J14" s="4"/>
+    </row>
+    <row r="15" s="3" customFormat="1" ht="42" spans="2:10">
+      <c r="B15" s="6"/>
+      <c r="C15" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" ht="42" spans="2:7">
+      <c r="B16" s="6"/>
+      <c r="C16" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" s="3" customFormat="1" ht="42" spans="2:10">
+      <c r="B18" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J18" s="4"/>
+    </row>
+    <row r="19" s="3" customFormat="1" spans="2:10">
+      <c r="B19" s="6"/>
+      <c r="C19" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J19" s="4"/>
+    </row>
+    <row r="20" customFormat="1" spans="2:10">
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="J20" s="4"/>
+    </row>
+    <row r="21" ht="28" spans="2:7">
+      <c r="B21" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" ht="28" spans="2:6">
+      <c r="B23" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" ht="28" spans="2:7">
+      <c r="B27" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="7:7">
+      <c r="G28" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="3:5">
+      <c r="C31" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="3:5">
+      <c r="C32" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5">
+      <c r="C33" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="35" ht="28" spans="2:6">
+      <c r="B35" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="37" ht="28" spans="2:5">
+      <c r="B37" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="40" ht="28" spans="2:2">
+      <c r="B40" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="B18:B19"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13:B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="2" width="22.1851851851852" style="3" customWidth="1"/>
-    <col min="3" max="3" width="25.3611111111111" style="3" customWidth="1"/>
-    <col min="4" max="4" width="24.2222222222222" style="3" customWidth="1"/>
+    <col min="2" max="2" width="22.1818181818182" style="3" customWidth="1"/>
+    <col min="3" max="3" width="25.3636363636364" style="3" customWidth="1"/>
+    <col min="4" max="4" width="24.2181818181818" style="3" customWidth="1"/>
     <col min="5" max="6" width="9" style="4"/>
     <col min="7" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>9</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>11</v>
+        <v>105</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>12</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>15</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" s="3" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>17</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" ht="28.8" spans="2:5">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" ht="28" spans="2:5">
       <c r="B13" s="5" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>115</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>23</v>
+        <v>116</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>24</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="2:4">
       <c r="B14" s="5"/>
       <c r="C14" s="5" t="s">
-        <v>25</v>
+        <v>118</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>26</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="2:4">
       <c r="B15" s="5"/>
       <c r="C15" s="5" t="s">
-        <v>27</v>
+        <v>120</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>28</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" s="5"/>
     </row>
-    <row r="17" ht="28.8" spans="2:5">
+    <row r="17" ht="28" spans="2:5">
       <c r="B17" s="5" t="s">
         <v>29</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>30</v>
+        <v>122</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>31</v>
+        <v>123</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>32</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" s="3" customFormat="1" spans="2:6">
       <c r="B18" s="5"/>
       <c r="C18" s="5" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>34</v>
+        <v>125</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
@@ -1941,10 +2381,10 @@
     <row r="19" s="3" customFormat="1" spans="2:6">
       <c r="B19" s="5"/>
       <c r="C19" s="3" t="s">
-        <v>27</v>
+        <v>120</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>28</v>
+        <v>121</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
@@ -1952,13 +2392,13 @@
     <row r="20" s="3" customFormat="1" spans="2:6">
       <c r="B20" s="5"/>
       <c r="C20" s="5" t="s">
-        <v>35</v>
+        <v>126</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>36</v>
+        <v>127</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>37</v>
+        <v>128</v>
       </c>
       <c r="F20" s="4"/>
     </row>
@@ -1971,95 +2411,95 @@
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>39</v>
+        <v>129</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>40</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="2:3">
       <c r="B23" s="5"/>
       <c r="C23" s="5" t="s">
-        <v>41</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="2:3">
       <c r="B24" s="5"/>
       <c r="C24" s="5" t="s">
-        <v>42</v>
+        <v>132</v>
       </c>
     </row>
     <row r="25" spans="2:4">
       <c r="B25" s="5"/>
       <c r="C25" s="5" t="s">
-        <v>43</v>
+        <v>133</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" ht="129.6" spans="2:6">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="26" ht="126" spans="2:6">
       <c r="B26" s="5"/>
       <c r="C26" s="5" t="s">
-        <v>45</v>
+        <v>135</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>46</v>
+        <v>136</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>47</v>
+        <v>137</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>48</v>
+        <v>138</v>
       </c>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" s="5"/>
       <c r="C27" s="5" t="s">
-        <v>49</v>
+        <v>139</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>50</v>
+        <v>140</v>
       </c>
     </row>
     <row r="28" spans="2:4">
       <c r="B28" s="5"/>
       <c r="C28" s="5" t="s">
-        <v>51</v>
+        <v>141</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="29" s="10" customFormat="1"/>
-    <row r="30" s="10" customFormat="1"/>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="29" s="9" customFormat="1"/>
+    <row r="30" s="9" customFormat="1"/>
     <row r="31" spans="2:4">
       <c r="B31" s="5" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>27</v>
+        <v>120</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>28</v>
+        <v>121</v>
       </c>
     </row>
     <row r="32" spans="2:3">
       <c r="B32" s="5"/>
       <c r="C32" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" ht="28.8" spans="2:4">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="33" ht="28" spans="2:4">
       <c r="B33" s="5"/>
       <c r="C33" s="6" t="s">
-        <v>55</v>
+        <v>144</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>56</v>
+        <v>145</v>
       </c>
     </row>
     <row r="34" spans="3:3">
@@ -2067,43 +2507,43 @@
     </row>
     <row r="35" spans="2:9">
       <c r="B35" s="4" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="I35" s="4"/>
     </row>
     <row r="36" spans="2:9">
       <c r="B36" s="4"/>
       <c r="C36" s="4" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="I36" s="4"/>
     </row>
     <row r="37" spans="2:9">
       <c r="B37" s="4"/>
       <c r="C37" s="4" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="I37" s="4"/>
     </row>
     <row r="38" spans="2:9">
       <c r="B38" s="4"/>
       <c r="C38" s="4" t="s">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="I38" s="4"/>
     </row>
@@ -2117,24 +2557,24 @@
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
     </row>
-    <row r="41" ht="28.8" spans="2:5">
+    <row r="41" ht="28" spans="2:5">
       <c r="B41" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>67</v>
+        <v>146</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>68</v>
+        <v>147</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>69</v>
+        <v>148</v>
       </c>
     </row>
     <row r="42" spans="2:3">
       <c r="B42" s="5"/>
       <c r="C42" s="5" t="s">
-        <v>70</v>
+        <v>149</v>
       </c>
     </row>
     <row r="43" spans="2:3">
@@ -2143,16 +2583,16 @@
     </row>
     <row r="44" spans="2:3">
       <c r="B44" s="5" t="s">
-        <v>71</v>
+        <v>150</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>72</v>
+        <v>151</v>
       </c>
     </row>
     <row r="45" spans="2:3">
       <c r="B45" s="5"/>
       <c r="C45" s="3" t="s">
-        <v>73</v>
+        <v>152</v>
       </c>
     </row>
     <row r="46" s="3" customFormat="1" spans="3:6">
@@ -2167,10 +2607,10 @@
     </row>
     <row r="48" s="3" customFormat="1" spans="2:6">
       <c r="B48" s="3" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>75</v>
+        <v>153</v>
       </c>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
@@ -2182,10 +2622,10 @@
     </row>
     <row r="50" s="3" customFormat="1" spans="2:6">
       <c r="B50" s="3" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>27</v>
+        <v>120</v>
       </c>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
@@ -2207,24 +2647,24 @@
     </row>
     <row r="54" spans="2:3">
       <c r="B54" s="3" t="s">
-        <v>77</v>
+        <v>154</v>
       </c>
       <c r="C54" s="5"/>
     </row>
     <row r="55" spans="2:3">
       <c r="B55" t="s">
-        <v>78</v>
+        <v>155</v>
       </c>
       <c r="C55" s="5"/>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" s="3" t="s">
-        <v>79</v>
+        <v>156</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" s="3" t="s">
-        <v>80</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -2242,7 +2682,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C19"/>
@@ -2251,559 +2691,119 @@
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="18.5555555555556" customWidth="1"/>
-    <col min="2" max="2" width="17.1111111111111" customWidth="1"/>
+    <col min="1" max="1" width="18.5545454545455" customWidth="1"/>
+    <col min="2" max="2" width="17.1090909090909" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>82</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>84</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>85</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>86</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>87</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>88</v>
+        <v>165</v>
       </c>
       <c r="B12" t="s">
-        <v>89</v>
+        <v>166</v>
       </c>
       <c r="C12" t="s">
-        <v>90</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>91</v>
+        <v>168</v>
       </c>
       <c r="B13" t="s">
-        <v>92</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>93</v>
+        <v>170</v>
       </c>
       <c r="B14" t="s">
-        <v>94</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>95</v>
+        <v>172</v>
       </c>
       <c r="B15" t="s">
-        <v>96</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="B16" t="s">
-        <v>97</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
       <c r="B17" t="s">
-        <v>98</v>
+        <v>175</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="B1:J40"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="8.73148148148148" style="3"/>
-    <col min="2" max="2" width="22.1851851851852" style="4" customWidth="1"/>
-    <col min="3" max="4" width="19" style="4" customWidth="1"/>
-    <col min="5" max="5" width="21.5462962962963" style="4" customWidth="1"/>
-    <col min="6" max="6" width="20.5555555555556" style="4" customWidth="1"/>
-    <col min="7" max="7" width="24.2222222222222" style="4" customWidth="1"/>
-    <col min="8" max="8" width="14.8888888888889" style="3" customWidth="1"/>
-    <col min="9" max="9" width="8.73148148148148" style="3"/>
-    <col min="10" max="10" width="18.2222222222222" style="4" customWidth="1"/>
-    <col min="11" max="16384" width="8.73148148148148" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="28.8" spans="2:10">
-      <c r="B1" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="2" ht="76" customHeight="1" spans="2:10">
-      <c r="B2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="3" ht="49" customHeight="1" spans="2:7">
-      <c r="B3" s="6"/>
-      <c r="C3" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="4" ht="43.2" spans="2:7">
-      <c r="B4" s="6"/>
-      <c r="C4" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="6" ht="28.8" spans="2:7">
-      <c r="B6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="7" ht="28.8" spans="2:7">
-      <c r="B7" s="6"/>
-      <c r="C7" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="9" ht="43.2" spans="2:7">
-      <c r="B9" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="10" ht="28.8" spans="2:7">
-      <c r="B10" s="6"/>
-      <c r="C10" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7">
-      <c r="B11" s="6"/>
-      <c r="C11" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="13" s="3" customFormat="1" ht="36" customHeight="1" spans="2:10">
-      <c r="B13" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="J13" s="4"/>
-    </row>
-    <row r="14" s="3" customFormat="1" ht="43.2" spans="2:10">
-      <c r="B14" s="6"/>
-      <c r="C14" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="J14" s="4"/>
-    </row>
-    <row r="15" s="3" customFormat="1" ht="43.2" spans="2:10">
-      <c r="B15" s="6"/>
-      <c r="C15" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="J15" s="4"/>
-    </row>
-    <row r="16" ht="43.2" spans="2:7">
-      <c r="B16" s="6"/>
-      <c r="C16" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="18" s="3" customFormat="1" ht="43.2" spans="2:10">
-      <c r="B18" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="J18" s="4"/>
-    </row>
-    <row r="19" s="3" customFormat="1" spans="2:10">
-      <c r="B19" s="6"/>
-      <c r="C19" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="J19" s="4"/>
-    </row>
-    <row r="20" customFormat="1" spans="2:10">
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="J20" s="4"/>
-    </row>
-    <row r="21" ht="28.8" spans="2:7">
-      <c r="B21" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="23" ht="28.8" spans="2:6">
-      <c r="B23" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7">
-      <c r="B25" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="27" ht="28.8" spans="2:7">
-      <c r="B27" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="28" spans="7:7">
-      <c r="G28" s="4" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5">
-      <c r="B30" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="31" spans="3:5">
-      <c r="C31" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="32" spans="3:5">
-      <c r="C32" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="33" spans="3:5">
-      <c r="C33" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="35" ht="28.8" spans="2:6">
-      <c r="B35" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="37" ht="28.8" spans="2:5">
-      <c r="B37" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="40" ht="28.8" spans="2:2">
-      <c r="B40" s="4" t="s">
-        <v>175</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="B18:B19"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -2818,19 +2818,19 @@
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="22.1851851851852" style="3" customWidth="1"/>
+    <col min="1" max="1" width="22.1818181818182" style="3" customWidth="1"/>
     <col min="2" max="2" width="19" style="4" customWidth="1"/>
-    <col min="3" max="3" width="18.5555555555556" customWidth="1"/>
+    <col min="3" max="3" width="18.5545454545455" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
-        <v>99</v>
+        <v>6</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
         <v>176</v>
@@ -2838,10 +2838,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="5" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>106</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
         <v>177</v>
@@ -2856,13 +2856,13 @@
     <row r="3" spans="1:2">
       <c r="A3" s="5"/>
       <c r="B3" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="4" ht="43.2" spans="1:3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" ht="42" spans="1:3">
       <c r="A4" s="5"/>
       <c r="B4" s="4" t="s">
-        <v>117</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
         <v>180</v>
@@ -2873,16 +2873,16 @@
         <v>29</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>121</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="7" ht="28.8" spans="1:3">
+    <row r="7" ht="28" spans="1:3">
       <c r="A7" s="5"/>
       <c r="B7" s="4" t="s">
-        <v>125</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
         <v>182</v>
@@ -2890,10 +2890,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>128</v>
       </c>
       <c r="C9" t="s">
         <v>183</v>
@@ -2902,7 +2902,7 @@
     <row r="10" spans="1:3">
       <c r="A10" s="5"/>
       <c r="B10" s="4" t="s">
-        <v>132</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
         <v>184</v>
@@ -2911,7 +2911,7 @@
     <row r="11" spans="1:3">
       <c r="A11" s="5"/>
       <c r="B11" s="4" t="s">
-        <v>136</v>
+        <v>46</v>
       </c>
       <c r="C11" t="s">
         <v>183</v>
@@ -2919,10 +2919,10 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="5" t="s">
-        <v>138</v>
+        <v>48</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>139</v>
+        <v>49</v>
       </c>
       <c r="C13" t="s">
         <v>185</v>
@@ -2931,13 +2931,13 @@
     <row r="14" spans="1:3">
       <c r="A14" s="5"/>
       <c r="B14" s="4" t="s">
-        <v>143</v>
+        <v>53</v>
       </c>
       <c r="C14" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="15" ht="28.8" spans="1:3">
+    <row r="15" ht="28" spans="1:3">
       <c r="A15" s="5"/>
       <c r="B15" s="4" t="s">
         <v>187</v>
@@ -2949,15 +2949,15 @@
     <row r="16" spans="1:3">
       <c r="A16" s="5"/>
       <c r="B16" s="4" t="s">
-        <v>148</v>
+        <v>58</v>
       </c>
       <c r="C16" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="18" ht="28.8" spans="1:3">
+    <row r="18" ht="28" spans="1:3">
       <c r="A18" s="5" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>190</v>
@@ -2969,7 +2969,7 @@
     <row r="19" spans="1:3">
       <c r="A19" s="5"/>
       <c r="B19" s="4" t="s">
-        <v>152</v>
+        <v>63</v>
       </c>
       <c r="C19" t="s">
         <v>192</v>
@@ -2977,10 +2977,10 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C21" t="s">
         <v>193</v>
@@ -2988,10 +2988,10 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>159</v>
+        <v>71</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>160</v>
+        <v>72</v>
       </c>
       <c r="C23" t="s">
         <v>194</v>
@@ -2999,10 +2999,10 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>195</v>
@@ -3010,21 +3010,21 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="3" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>166</v>
+        <v>80</v>
       </c>
       <c r="C27" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="29" ht="28.8" spans="1:3">
+    <row r="29" ht="28" spans="1:3">
       <c r="A29" s="3" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>170</v>
+        <v>94</v>
       </c>
       <c r="C29" t="s">
         <v>192</v>
@@ -3032,7 +3032,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="3" t="s">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>197</v>
@@ -3063,20 +3063,20 @@
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="22.1851851851852" style="3" customWidth="1"/>
-    <col min="2" max="2" width="22.4444444444444" style="4" customWidth="1"/>
-    <col min="3" max="3" width="21.2222222222222" customWidth="1"/>
-    <col min="4" max="4" width="17.5555555555556" customWidth="1"/>
+    <col min="1" max="1" width="22.1818181818182" style="3" customWidth="1"/>
+    <col min="2" max="2" width="22.4454545454545" style="4" customWidth="1"/>
+    <col min="3" max="3" width="21.2181818181818" customWidth="1"/>
+    <col min="4" max="4" width="17.5545454545455" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
-        <v>99</v>
+        <v>6</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
         <v>198</v>
@@ -3084,10 +3084,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="5" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>106</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
         <v>199</v>
@@ -3112,7 +3112,7 @@
         <v>29</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>121</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
         <v>202</v>
@@ -3121,7 +3121,7 @@
     <row r="7" spans="1:3">
       <c r="A7" s="5"/>
       <c r="B7" s="4" t="s">
-        <v>125</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
         <v>203</v>
@@ -3129,10 +3129,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>128</v>
       </c>
       <c r="C9" t="s">
         <v>204</v>
@@ -3141,7 +3141,7 @@
     <row r="10" spans="1:3">
       <c r="A10" s="5"/>
       <c r="B10" s="4" t="s">
-        <v>132</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
         <v>205</v>
@@ -3150,7 +3150,7 @@
     <row r="11" spans="1:3">
       <c r="A11" s="5"/>
       <c r="B11" s="4" t="s">
-        <v>136</v>
+        <v>46</v>
       </c>
       <c r="C11" t="s">
         <v>206</v>
@@ -3158,10 +3158,10 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="5" t="s">
-        <v>138</v>
+        <v>48</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>139</v>
+        <v>49</v>
       </c>
       <c r="C13" t="s">
         <v>207</v>
@@ -3170,7 +3170,7 @@
     <row r="14" spans="1:3">
       <c r="A14" s="5"/>
       <c r="B14" s="4" t="s">
-        <v>143</v>
+        <v>53</v>
       </c>
       <c r="C14" t="s">
         <v>206</v>
@@ -3179,7 +3179,7 @@
     <row r="15" spans="1:3">
       <c r="A15" s="5"/>
       <c r="B15" s="4" t="s">
-        <v>147</v>
+        <v>57</v>
       </c>
       <c r="C15" t="s">
         <v>206</v>
@@ -3188,7 +3188,7 @@
     <row r="16" spans="1:3">
       <c r="A16" s="5"/>
       <c r="B16" s="4" t="s">
-        <v>148</v>
+        <v>58</v>
       </c>
       <c r="C16" t="s">
         <v>206</v>
@@ -3196,7 +3196,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="5" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>190</v>
@@ -3208,7 +3208,7 @@
     <row r="19" spans="1:3">
       <c r="A19" s="5"/>
       <c r="B19" s="4" t="s">
-        <v>152</v>
+        <v>63</v>
       </c>
       <c r="C19" t="s">
         <v>206</v>
@@ -3216,10 +3216,10 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C21" t="s">
         <v>209</v>
@@ -3230,10 +3230,10 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>159</v>
+        <v>71</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>160</v>
+        <v>72</v>
       </c>
       <c r="C23" t="s">
         <v>211</v>
@@ -3241,10 +3241,10 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="C25" t="s">
         <v>212</v>
@@ -3255,10 +3255,10 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="3" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>166</v>
+        <v>80</v>
       </c>
       <c r="C27" t="s">
         <v>214</v>
@@ -3266,10 +3266,10 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>170</v>
+        <v>94</v>
       </c>
       <c r="C29" t="s">
         <v>215</v>
@@ -3298,7 +3298,7 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
@@ -3330,42 +3330,42 @@
         <v>221</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="15.6" spans="2:2">
+    <row r="7" s="1" customFormat="1" ht="15" spans="2:2">
       <c r="B7" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="15.6" spans="2:2">
+    <row r="8" s="1" customFormat="1" ht="15" spans="2:2">
       <c r="B8" s="1" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" ht="15.6" spans="2:2">
+    <row r="9" s="1" customFormat="1" ht="15" spans="2:2">
       <c r="B9" s="1" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" ht="15.6" spans="2:2">
+    <row r="10" s="1" customFormat="1" ht="15" spans="2:2">
       <c r="B10" s="1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" ht="15.6" spans="2:2">
+    <row r="11" s="1" customFormat="1" ht="15" spans="2:2">
       <c r="B11" s="1" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" ht="15.6" spans="2:2">
+    <row r="12" s="1" customFormat="1" ht="15" spans="2:2">
       <c r="B12" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" ht="15.6" spans="2:2">
+    <row r="13" s="1" customFormat="1" ht="15" spans="2:2">
       <c r="B13" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" ht="15.6" spans="2:2">
+    <row r="14" s="1" customFormat="1" ht="15" spans="2:2">
       <c r="B14" s="1" t="s">
         <v>229</v>
       </c>
@@ -3414,7 +3414,7 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="2"/>
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
@@ -3465,7 +3465,7 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="1"/>
   <sheetData>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
